--- a/datalists/N2_HD_g_list.xlsx
+++ b/datalists/N2_HD_g_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="5840" windowWidth="25600" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>/data2/shared/data/twoColour/Results/recording52/recording52.1g100-350/recording52.1g_X1_skeletons.hdf5</t>
   </si>
@@ -52,18 +52,124 @@
   </si>
   <si>
     <t>/data2/shared/data/twoColour/Results/recording63/recording63.2g100-350/recording63.2g_X1_skeletons.hdf5</t>
+  </si>
+  <si>
+    <t>0-800</t>
+  </si>
+  <si>
+    <t>880-18330</t>
+  </si>
+  <si>
+    <t>18430-23410</t>
+  </si>
+  <si>
+    <t>23500-end</t>
+  </si>
+  <si>
+    <t>0-1690</t>
+  </si>
+  <si>
+    <t>1800-15160</t>
+  </si>
+  <si>
+    <t>15310-28360</t>
+  </si>
+  <si>
+    <t>28450-31130</t>
+  </si>
+  <si>
+    <t>31190-end</t>
+  </si>
+  <si>
+    <t>0-3190</t>
+  </si>
+  <si>
+    <t>3290-21980</t>
+  </si>
+  <si>
+    <t>22100-end</t>
+  </si>
+  <si>
+    <t>0-5740</t>
+  </si>
+  <si>
+    <t>5790-end</t>
+  </si>
+  <si>
+    <t>0-7590</t>
+  </si>
+  <si>
+    <t>7650-end</t>
+  </si>
+  <si>
+    <t>0-640</t>
+  </si>
+  <si>
+    <t>680-12460</t>
+  </si>
+  <si>
+    <t>12540-end</t>
+  </si>
+  <si>
+    <t>0-1820</t>
+  </si>
+  <si>
+    <t>1890-14140</t>
+  </si>
+  <si>
+    <t>14220-22210</t>
+  </si>
+  <si>
+    <t>22320-end</t>
+  </si>
+  <si>
+    <t>0-end</t>
+  </si>
+  <si>
+    <t>0-23200</t>
+  </si>
+  <si>
+    <t>23350-end</t>
+  </si>
+  <si>
+    <t>0-16940</t>
+  </si>
+  <si>
+    <t>17100-21300</t>
+  </si>
+  <si>
+    <t>21430-25020</t>
+  </si>
+  <si>
+    <t>25110-29680</t>
+  </si>
+  <si>
+    <t>30050-end</t>
+  </si>
+  <si>
+    <t>0-13770</t>
+  </si>
+  <si>
+    <t>13910-22370</t>
+  </si>
+  <si>
+    <t>22510-25640</t>
+  </si>
+  <si>
+    <t>25770-end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,6 +187,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,17 +216,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -451,7 +577,7 @@
     <col min="1" max="1" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +593,21 @@
       <c r="E1">
         <v>32400</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -484,8 +623,23 @@
       <c r="E2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -501,8 +655,19 @@
       <c r="E3">
         <v>32400</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -518,8 +683,17 @@
       <c r="E4">
         <v>32400</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -535,8 +709,17 @@
       <c r="E5">
         <v>32400</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -552,8 +735,19 @@
       <c r="E6">
         <v>32400</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -569,8 +763,21 @@
       <c r="E7">
         <v>32400</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -586,8 +793,15 @@
       <c r="E8">
         <v>32400</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -603,8 +817,17 @@
       <c r="E9">
         <v>32400</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -620,8 +843,23 @@
       <c r="E10">
         <v>32400</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -637,6 +875,19 @@
       <c r="E11">
         <v>32400</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
